--- a/in/P16tableB1.xlsx
+++ b/in/P16tableB1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Dropbox\Projects\20200721_grbExcessRate\git\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Dropbox\Projects\20200721_grbExcessRate\git\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528EF829-FD11-44A1-B763-5BF030D7C5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBCF75E-06B3-42FC-B7F9-DF7D73757CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="2100" windowWidth="18375" windowHeight="13980" xr2:uid="{89DE5EBF-1A1E-4342-9E7A-8649BA37E7CC}"/>
+    <workbookView xWindow="10425" yWindow="960" windowWidth="18375" windowHeight="13980" xr2:uid="{89DE5EBF-1A1E-4342-9E7A-8649BA37E7CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -640,7 +634,7 @@
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
